--- a/ларек июль19.xlsx
+++ b/ларек июль19.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iammr\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iammr\OneDrive\Рабочий стол\Новая папка (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="219">
   <si>
     <t>ОТЧЕТ ПО ЛАРЬКУ УЧРЕЖДЕНИЕ АК-159/6</t>
   </si>
@@ -675,6 +675,9 @@
   </si>
   <si>
     <t>Остаток на 01.09.2019г</t>
+  </si>
+  <si>
+    <t>Арахис орехи фас1</t>
   </si>
 </sst>
 </file>
@@ -2208,7 +2211,7 @@
   <dimension ref="A2:L186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L183" sqref="L183"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>24</v>
@@ -7465,11 +7468,11 @@
         <v>0</v>
       </c>
       <c r="I133" s="19">
-        <f>E133+G133-K133</f>
+        <f t="shared" ref="I133:J135" si="23">E133+G133-K133</f>
         <v>2</v>
       </c>
       <c r="J133" s="22">
-        <f>F133+H133-L133</f>
+        <f t="shared" si="23"/>
         <v>800</v>
       </c>
       <c r="K133" s="26">
@@ -7506,11 +7509,11 @@
         <v>0</v>
       </c>
       <c r="I134" s="19">
-        <f>E134+G134-K134</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="J134" s="22">
-        <f>F134+H134-L134</f>
+        <f t="shared" si="23"/>
         <v>17500</v>
       </c>
       <c r="K134" s="26">
@@ -7542,11 +7545,11 @@
         <v>7350</v>
       </c>
       <c r="I135" s="19">
-        <f>E135+G135-K135</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="J135" s="22">
-        <f>F135+H135-L135</f>
+        <f t="shared" si="23"/>
         <v>490</v>
       </c>
       <c r="K135" s="26">
@@ -7583,18 +7586,18 @@
         <v>0</v>
       </c>
       <c r="I136" s="19">
-        <f t="shared" ref="I136:J142" si="23">E136+G136-K136</f>
+        <f t="shared" ref="I136:J142" si="24">E136+G136-K136</f>
         <v>13</v>
       </c>
       <c r="J136" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2860</v>
       </c>
       <c r="K136" s="29">
         <v>50</v>
       </c>
       <c r="L136" s="23">
-        <f t="shared" ref="L136:L143" si="24">K136*D136</f>
+        <f t="shared" ref="L136:L143" si="25">K136*D136</f>
         <v>11000</v>
       </c>
     </row>
@@ -7624,18 +7627,18 @@
         <v>0</v>
       </c>
       <c r="I137" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J137" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K137" s="29">
         <v>1</v>
       </c>
       <c r="L137" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6500</v>
       </c>
     </row>
@@ -7665,18 +7668,18 @@
         <v>0</v>
       </c>
       <c r="I138" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J138" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K138" s="26">
         <v>18</v>
       </c>
       <c r="L138" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2790</v>
       </c>
     </row>
@@ -7706,16 +7709,16 @@
         <v>0</v>
       </c>
       <c r="I139" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="J139" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1640</v>
       </c>
       <c r="K139" s="26"/>
       <c r="L139" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -7745,18 +7748,18 @@
         <v>6000</v>
       </c>
       <c r="I140" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="J140" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4200</v>
       </c>
       <c r="K140" s="26">
         <v>3</v>
       </c>
       <c r="L140" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1800</v>
       </c>
     </row>
@@ -7786,18 +7789,18 @@
         <v>0</v>
       </c>
       <c r="I141" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J141" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K141" s="26">
         <v>28</v>
       </c>
       <c r="L141" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8400</v>
       </c>
     </row>
@@ -7827,18 +7830,18 @@
         <v>0</v>
       </c>
       <c r="I142" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J142" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K142" s="29">
         <v>27</v>
       </c>
       <c r="L142" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3780</v>
       </c>
     </row>
@@ -7868,7 +7871,7 @@
         <v>50</v>
       </c>
       <c r="L143" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2500</v>
       </c>
     </row>
@@ -7898,18 +7901,18 @@
         <v>0</v>
       </c>
       <c r="I144" s="19">
-        <f t="shared" ref="I144:I163" si="25">E144+G144-K144</f>
+        <f t="shared" ref="I144:I163" si="26">E144+G144-K144</f>
         <v>0</v>
       </c>
       <c r="J144" s="22">
-        <f t="shared" ref="J144:J163" si="26">F144+H144-L144</f>
+        <f t="shared" ref="J144:J163" si="27">F144+H144-L144</f>
         <v>0</v>
       </c>
       <c r="K144" s="26">
         <v>41</v>
       </c>
       <c r="L144" s="23">
-        <f t="shared" ref="L144:L164" si="27">K144*D144</f>
+        <f t="shared" ref="L144:L164" si="28">K144*D144</f>
         <v>820</v>
       </c>
     </row>
@@ -7939,18 +7942,18 @@
         <v>0</v>
       </c>
       <c r="I145" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J145" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K145" s="26">
         <v>29</v>
       </c>
       <c r="L145" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4350</v>
       </c>
     </row>
@@ -7971,7 +7974,7 @@
         <v>31</v>
       </c>
       <c r="F146" s="20">
-        <f t="shared" ref="F146:F153" si="28">D146*E146</f>
+        <f t="shared" ref="F146:F153" si="29">D146*E146</f>
         <v>11470</v>
       </c>
       <c r="G146" s="20"/>
@@ -7980,18 +7983,18 @@
         <v>0</v>
       </c>
       <c r="I146" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="J146" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2590</v>
       </c>
       <c r="K146" s="26">
         <v>24</v>
       </c>
       <c r="L146" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8880</v>
       </c>
     </row>
@@ -8012,7 +8015,7 @@
         <v>10</v>
       </c>
       <c r="F147" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5300</v>
       </c>
       <c r="G147" s="20"/>
@@ -8021,18 +8024,18 @@
         <v>0</v>
       </c>
       <c r="I147" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J147" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K147" s="26">
         <v>10</v>
       </c>
       <c r="L147" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5300</v>
       </c>
     </row>
@@ -8053,7 +8056,7 @@
         <v>28</v>
       </c>
       <c r="F148" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>14000</v>
       </c>
       <c r="G148" s="20">
@@ -8064,18 +8067,18 @@
         <v>9000</v>
       </c>
       <c r="I148" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="J148" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6000</v>
       </c>
       <c r="K148" s="29">
         <v>34</v>
       </c>
       <c r="L148" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>17000</v>
       </c>
     </row>
@@ -8094,7 +8097,7 @@
       </c>
       <c r="E149" s="29"/>
       <c r="F149" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G149" s="20">
@@ -8105,18 +8108,18 @@
         <v>19425</v>
       </c>
       <c r="I149" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="J149" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>18500</v>
       </c>
       <c r="K149" s="29">
         <v>1</v>
       </c>
       <c r="L149" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>925</v>
       </c>
     </row>
@@ -8137,7 +8140,7 @@
         <v>21</v>
       </c>
       <c r="F150" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>11550</v>
       </c>
       <c r="G150" s="21"/>
@@ -8146,18 +8149,18 @@
         <v>0</v>
       </c>
       <c r="I150" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="J150" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6050</v>
       </c>
       <c r="K150" s="26">
         <v>10</v>
       </c>
       <c r="L150" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5500</v>
       </c>
     </row>
@@ -8178,7 +8181,7 @@
         <v>12</v>
       </c>
       <c r="F151" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1200</v>
       </c>
       <c r="G151" s="21"/>
@@ -8187,18 +8190,18 @@
         <v>0</v>
       </c>
       <c r="I151" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J151" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K151" s="26">
         <v>12</v>
       </c>
       <c r="L151" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1200</v>
       </c>
     </row>
@@ -8219,7 +8222,7 @@
         <v>47</v>
       </c>
       <c r="F152" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>54050</v>
       </c>
       <c r="G152" s="21"/>
@@ -8228,18 +8231,18 @@
         <v>0</v>
       </c>
       <c r="I152" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="J152" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>10350</v>
       </c>
       <c r="K152" s="26">
         <v>38</v>
       </c>
       <c r="L152" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>43700</v>
       </c>
     </row>
@@ -8260,7 +8263,7 @@
         <v>100</v>
       </c>
       <c r="F153" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="G153" s="21"/>
@@ -8269,18 +8272,18 @@
         <v>0</v>
       </c>
       <c r="I153" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J153" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K153" s="26">
         <v>100</v>
       </c>
       <c r="L153" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1000</v>
       </c>
     </row>
@@ -8301,7 +8304,7 @@
         <v>5</v>
       </c>
       <c r="F154" s="20">
-        <f t="shared" ref="F154:F169" si="29">D154*E154</f>
+        <f t="shared" ref="F154:F169" si="30">D154*E154</f>
         <v>2100</v>
       </c>
       <c r="G154" s="21"/>
@@ -8310,18 +8313,18 @@
         <v>0</v>
       </c>
       <c r="I154" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="J154" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>420</v>
       </c>
       <c r="K154" s="26">
         <v>4</v>
       </c>
       <c r="L154" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1680</v>
       </c>
     </row>
@@ -8342,7 +8345,7 @@
         <v>20</v>
       </c>
       <c r="F155" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12800</v>
       </c>
       <c r="G155" s="21">
@@ -8353,18 +8356,18 @@
         <v>32000</v>
       </c>
       <c r="I155" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>27</v>
       </c>
       <c r="J155" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>17280</v>
       </c>
       <c r="K155" s="26">
         <v>43</v>
       </c>
       <c r="L155" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>27520</v>
       </c>
     </row>
@@ -8385,7 +8388,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1250</v>
       </c>
       <c r="G156" s="21"/>
@@ -8394,18 +8397,18 @@
         <v>0</v>
       </c>
       <c r="I156" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J156" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K156" s="26">
         <v>1</v>
       </c>
       <c r="L156" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1250</v>
       </c>
     </row>
@@ -8424,7 +8427,7 @@
       </c>
       <c r="E157" s="26"/>
       <c r="F157" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G157" s="21">
@@ -8435,18 +8438,18 @@
         <v>36000</v>
       </c>
       <c r="I157" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.129999999999999</v>
       </c>
       <c r="J157" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9756</v>
       </c>
       <c r="K157" s="26">
         <v>21.87</v>
       </c>
       <c r="L157" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>26244</v>
       </c>
     </row>
@@ -8473,18 +8476,18 @@
         <v>33280</v>
       </c>
       <c r="I158" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="J158" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4160</v>
       </c>
       <c r="K158" s="26">
         <v>56</v>
       </c>
       <c r="L158" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>29120</v>
       </c>
     </row>
@@ -8505,7 +8508,7 @@
         <v>31</v>
       </c>
       <c r="F159" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7750</v>
       </c>
       <c r="G159" s="21"/>
@@ -8514,18 +8517,18 @@
         <v>0</v>
       </c>
       <c r="I159" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="J159" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>500</v>
       </c>
       <c r="K159" s="26">
         <v>29</v>
       </c>
       <c r="L159" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7250</v>
       </c>
     </row>
@@ -8546,7 +8549,7 @@
         <v>26</v>
       </c>
       <c r="F160" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>14300</v>
       </c>
       <c r="G160" s="21"/>
@@ -8555,18 +8558,18 @@
         <v>0</v>
       </c>
       <c r="I160" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="J160" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3850</v>
       </c>
       <c r="K160" s="26">
         <v>19</v>
       </c>
       <c r="L160" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>10450</v>
       </c>
     </row>
@@ -8587,7 +8590,7 @@
         <v>32</v>
       </c>
       <c r="F161" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>14400</v>
       </c>
       <c r="G161" s="20"/>
@@ -8596,16 +8599,16 @@
         <v>0</v>
       </c>
       <c r="I161" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>32</v>
       </c>
       <c r="J161" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>14400</v>
       </c>
       <c r="K161" s="29"/>
       <c r="L161" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -8624,7 +8627,7 @@
       </c>
       <c r="E162" s="26"/>
       <c r="F162" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G162" s="20">
@@ -8635,18 +8638,18 @@
         <v>126720</v>
       </c>
       <c r="I162" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>53</v>
       </c>
       <c r="J162" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>46640</v>
       </c>
       <c r="K162" s="26">
         <v>91</v>
       </c>
       <c r="L162" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>80080</v>
       </c>
     </row>
@@ -8667,7 +8670,7 @@
         <v>29</v>
       </c>
       <c r="F163" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>11600</v>
       </c>
       <c r="G163" s="20">
@@ -8678,18 +8681,18 @@
         <v>42000</v>
       </c>
       <c r="I163" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>71</v>
       </c>
       <c r="J163" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>28400</v>
       </c>
       <c r="K163" s="26">
         <v>63</v>
       </c>
       <c r="L163" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>25200</v>
       </c>
     </row>
@@ -8719,7 +8722,7 @@
         <v>2</v>
       </c>
       <c r="L164" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2230</v>
       </c>
     </row>
@@ -8740,7 +8743,7 @@
         <v>13</v>
       </c>
       <c r="F165" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7670</v>
       </c>
       <c r="G165" s="20"/>
@@ -8749,16 +8752,16 @@
         <v>0</v>
       </c>
       <c r="I165" s="19">
-        <f t="shared" ref="I165:I178" si="30">E165+G165-K165</f>
+        <f t="shared" ref="I165:I178" si="31">E165+G165-K165</f>
         <v>13</v>
       </c>
       <c r="J165" s="22">
-        <f t="shared" ref="J165:J178" si="31">F165+H165-L165</f>
+        <f t="shared" ref="J165:J178" si="32">F165+H165-L165</f>
         <v>7670</v>
       </c>
       <c r="K165" s="26"/>
       <c r="L165" s="23">
-        <f t="shared" ref="L165:L178" si="32">K165*D165</f>
+        <f t="shared" ref="L165:L178" si="33">K165*D165</f>
         <v>0</v>
       </c>
     </row>
@@ -8779,7 +8782,7 @@
         <v>3</v>
       </c>
       <c r="F166" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2970</v>
       </c>
       <c r="G166" s="20"/>
@@ -8788,16 +8791,16 @@
         <v>0</v>
       </c>
       <c r="I166" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="J166" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2970</v>
       </c>
       <c r="K166" s="26"/>
       <c r="L166" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -8818,7 +8821,7 @@
         <v>4</v>
       </c>
       <c r="F167" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2000</v>
       </c>
       <c r="G167" s="20"/>
@@ -8827,18 +8830,18 @@
         <v>0</v>
       </c>
       <c r="I167" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J167" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K167" s="26">
         <v>4</v>
       </c>
       <c r="L167" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2000</v>
       </c>
     </row>
@@ -8857,7 +8860,7 @@
       </c>
       <c r="E168" s="26"/>
       <c r="F168" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G168" s="20">
@@ -8868,18 +8871,18 @@
         <v>22800</v>
       </c>
       <c r="I168" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="J168" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>11400</v>
       </c>
       <c r="K168" s="26">
         <v>12</v>
       </c>
       <c r="L168" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>11400</v>
       </c>
     </row>
@@ -8898,7 +8901,7 @@
       </c>
       <c r="E169" s="26"/>
       <c r="F169" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G169" s="20">
@@ -8909,18 +8912,18 @@
         <v>27600</v>
       </c>
       <c r="I169" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="J169" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>8050</v>
       </c>
       <c r="K169" s="26">
         <v>17</v>
       </c>
       <c r="L169" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>19550</v>
       </c>
     </row>
@@ -8941,7 +8944,7 @@
         <v>58</v>
       </c>
       <c r="F170" s="20">
-        <f t="shared" ref="F170:F178" si="33">D170*E170</f>
+        <f t="shared" ref="F170:F178" si="34">D170*E170</f>
         <v>34800</v>
       </c>
       <c r="G170" s="20"/>
@@ -8950,18 +8953,18 @@
         <v>0</v>
       </c>
       <c r="I170" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>36</v>
       </c>
       <c r="J170" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>21600</v>
       </c>
       <c r="K170" s="26">
         <v>22</v>
       </c>
       <c r="L170" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>13200</v>
       </c>
     </row>
@@ -8980,7 +8983,7 @@
       </c>
       <c r="E171" s="26"/>
       <c r="F171" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G171" s="20">
@@ -8991,18 +8994,18 @@
         <v>9000</v>
       </c>
       <c r="I171" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>14</v>
       </c>
       <c r="J171" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4200</v>
       </c>
       <c r="K171" s="26">
         <v>16</v>
       </c>
       <c r="L171" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4800</v>
       </c>
     </row>
@@ -9019,7 +9022,7 @@
       </c>
       <c r="E172" s="26"/>
       <c r="F172" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G172" s="20">
@@ -9030,16 +9033,16 @@
         <v>1800</v>
       </c>
       <c r="I172" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="J172" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1800</v>
       </c>
       <c r="K172" s="26"/>
       <c r="L172" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -9056,7 +9059,7 @@
       </c>
       <c r="E173" s="26"/>
       <c r="F173" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G173" s="20">
@@ -9067,16 +9070,16 @@
         <v>3600</v>
       </c>
       <c r="I173" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>36</v>
       </c>
       <c r="J173" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3600</v>
       </c>
       <c r="K173" s="26"/>
       <c r="L173" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -9097,7 +9100,7 @@
         <v>172</v>
       </c>
       <c r="F174" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>51600</v>
       </c>
       <c r="G174" s="21"/>
@@ -9106,18 +9109,18 @@
         <v>0</v>
       </c>
       <c r="I174" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>46</v>
       </c>
       <c r="J174" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>13800</v>
       </c>
       <c r="K174" s="44">
         <v>126</v>
       </c>
       <c r="L174" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>37800</v>
       </c>
     </row>
@@ -9138,7 +9141,7 @@
         <v>24</v>
       </c>
       <c r="F175" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5040</v>
       </c>
       <c r="G175" s="21"/>
@@ -9147,18 +9150,18 @@
         <v>0</v>
       </c>
       <c r="I175" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="J175" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>420</v>
       </c>
       <c r="K175" s="26">
         <v>22</v>
       </c>
       <c r="L175" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4620</v>
       </c>
     </row>
@@ -9179,7 +9182,7 @@
         <v>17</v>
       </c>
       <c r="F176" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>680</v>
       </c>
       <c r="G176" s="21"/>
@@ -9188,18 +9191,18 @@
         <v>0</v>
       </c>
       <c r="I176" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="J176" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>120</v>
       </c>
       <c r="K176" s="26">
         <v>14</v>
       </c>
       <c r="L176" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>560</v>
       </c>
     </row>
@@ -9220,7 +9223,7 @@
         <v>4</v>
       </c>
       <c r="F177" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>600</v>
       </c>
       <c r="G177" s="20"/>
@@ -9229,18 +9232,18 @@
         <v>0</v>
       </c>
       <c r="I177" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J177" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K177" s="26">
         <v>4</v>
       </c>
       <c r="L177" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>600</v>
       </c>
     </row>
@@ -9261,7 +9264,7 @@
         <v>15</v>
       </c>
       <c r="F178" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4050</v>
       </c>
       <c r="G178" s="20"/>
@@ -9270,18 +9273,18 @@
         <v>0</v>
       </c>
       <c r="I178" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J178" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K178" s="26">
         <v>15</v>
       </c>
       <c r="L178" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4050</v>
       </c>
     </row>
